--- a/idnmodel_localnews_evaluate.xlsx
+++ b/idnmodel_localnews_evaluate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1385F3-0075-441A-B7E4-EF5EFF5A0D18}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A680222-1FD7-4CF6-84D0-148DF0E29FFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4090" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,21 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -632,10 +633,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10:D12"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="0" style="3" hidden="1" customWidth="1"/>
@@ -647,7 +648,7 @@
     <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -691,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="130.5">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -712,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -733,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="58">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -756,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="43.5">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -777,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="87">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -800,7 +801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="101.5">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -823,7 +824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="87">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -844,7 +845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="159.5">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -854,7 +855,7 @@
       <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -867,7 +868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="87">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -877,7 +878,7 @@
       <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -890,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -900,7 +901,7 @@
       <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -913,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="130.5">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -938,13 +939,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G13">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>